--- a/data/trans_camb/P1417-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1417-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>1.393929721167604</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>2.264987313869194</v>
+        <v>2.264987313869193</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.3330034462980568</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.075843902757937</v>
+        <v>-1.044384338389226</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.4203894941965581</v>
+        <v>-0.4157079093672174</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2745148559519347</v>
+        <v>0.2885316898715461</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.6487503309574358</v>
+        <v>-0.5432074901320525</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.05383301288735672</v>
+        <v>-0.1661222442161457</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6706302971354516</v>
+        <v>0.678593742398264</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.4596266098479924</v>
+        <v>-0.4972329317436732</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07840888647948251</v>
+        <v>0.07327499311749086</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8426253239490046</v>
+        <v>0.9036251432108101</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2757936596409784</v>
+        <v>0.2758968105203203</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.369003111672643</v>
+        <v>1.341853832321465</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.205794757960535</v>
+        <v>2.248037923035994</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.636858321371612</v>
+        <v>2.454592816958032</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.127748090079713</v>
+        <v>3.111000804750391</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.82371154904722</v>
+        <v>3.65652715104713</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.172671678510306</v>
+        <v>1.118915956147159</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.878077247244367</v>
+        <v>1.880418241130547</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>2.681195763476447</v>
+        <v>2.71342736964567</v>
       </c>
     </row>
     <row r="7">
@@ -784,25 +784,25 @@
         <v>-1</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.360968619835592</v>
+        <v>-0.308955965795108</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3244219233197415</v>
+        <v>-0.2610474649044894</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1456548876208713</v>
+        <v>-0.1749774082912728</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2340925912393871</v>
+        <v>0.178679938388369</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3969300370438503</v>
+        <v>-0.3872669479721212</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02418914008330761</v>
+        <v>-0.04385764422042993</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4949605222994854</v>
+        <v>0.5784078242282938</v>
       </c>
     </row>
     <row r="9">
@@ -816,22 +816,22 @@
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
       <c r="F9" s="6" t="n">
-        <v>2.902249670670912</v>
+        <v>2.599974931136984</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.185717853538889</v>
+        <v>3.232561046072585</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.034850064276141</v>
+        <v>3.598497838143828</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.949908248477798</v>
+        <v>1.691834243660665</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.08895770701735</v>
+        <v>2.836518530833158</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>4.261895610616852</v>
+        <v>4.536891625241602</v>
       </c>
     </row>
     <row r="10">
@@ -870,7 +870,7 @@
         <v>0.6150450440193895</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.02033292644848</v>
+        <v>2.020332926448479</v>
       </c>
     </row>
     <row r="11">
@@ -881,31 +881,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2263554615260326</v>
+        <v>-0.2233560822813276</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1352514463627577</v>
+        <v>-0.1320207653296735</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.511966826298944</v>
+        <v>0.51968032019512</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.564048772179232</v>
+        <v>0.6258523754016408</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.3365298070164976</v>
+        <v>-0.358013293841673</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.575448222098883</v>
+        <v>1.621891496875349</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4863872667519382</v>
+        <v>0.4556658046373432</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.07464632653842736</v>
+        <v>-0.1187482482964387</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.297912467935527</v>
+        <v>1.365892198923248</v>
       </c>
     </row>
     <row r="12">
@@ -916,31 +916,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.059268889667093</v>
+        <v>1.088511710406586</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.115921741026372</v>
+        <v>1.197509239591055</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.962423502780012</v>
+        <v>2.00055910685494</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.444517726840886</v>
+        <v>3.277510193976712</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.896709709760592</v>
+        <v>1.93193326621821</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.950709269819387</v>
+        <v>3.991063317298381</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.026634225141129</v>
+        <v>1.95807883436106</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.271841804913122</v>
+        <v>1.278339510592677</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.71482265888032</v>
+        <v>2.793605609920063</v>
       </c>
     </row>
     <row r="13">
@@ -957,7 +957,7 @@
         <v>1.508331109683002</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>3.673003327010935</v>
+        <v>3.673003327010934</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.472852109438877</v>
@@ -975,7 +975,7 @@
         <v>0.7519769405683524</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>2.470134159657319</v>
+        <v>2.470134159657318</v>
       </c>
     </row>
     <row r="14">
@@ -986,31 +986,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.6062141462645417</v>
+        <v>-0.5676034865755376</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4678199027029264</v>
+        <v>-0.4766274699367969</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2452913711828294</v>
+        <v>0.5266997252323949</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1784704377505467</v>
+        <v>0.2571492787665104</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2174402965162514</v>
+        <v>-0.2389460623741677</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7301793093893825</v>
+        <v>0.7133082995591662</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.385915270028658</v>
+        <v>0.3255773501976913</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.07982168359768681</v>
+        <v>-0.1538345032130741</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.066956322831399</v>
+        <v>1.075532140327264</v>
       </c>
     </row>
     <row r="15">
@@ -1020,34 +1020,32 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="6" t="n">
-        <v>10.37436794774417</v>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
       </c>
+      <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>16.16968784419463</v>
+        <v>18.34204833209048</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.878004496185496</v>
+        <v>4.186497636808911</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.304433946177028</v>
+        <v>2.316399244363858</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.949365405564465</v>
+        <v>5.024607065658543</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>3.571947158745739</v>
+        <v>3.784622346046278</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.480600775325053</v>
+        <v>2.466796320500751</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>5.124935646828684</v>
+        <v>4.870508651086891</v>
       </c>
     </row>
     <row r="16">
@@ -1068,7 +1066,7 @@
         <v>0.2305658516110691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6675675012967569</v>
+        <v>0.6675675012967573</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.08686849763244013</v>
@@ -1077,7 +1075,7 @@
         <v>-0.5732417385409874</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3.028276741993391</v>
+        <v>3.028276741993392</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-0.1603364873373456</v>
@@ -1097,31 +1095,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.057663778507733</v>
+        <v>-1.161633801207393</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6471177952039254</v>
+        <v>-0.6675539797152137</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2973914147116566</v>
+        <v>-0.1818146152234555</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.886547146747239</v>
+        <v>-1.699879516249971</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.266926780939524</v>
+        <v>-2.289705352895942</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.045127014332666</v>
+        <v>1.247537841112833</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.048415947222585</v>
+        <v>-1.095332437976336</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.111038225525773</v>
+        <v>-1.180983344492557</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6895341404467205</v>
+        <v>0.6920116012997742</v>
       </c>
     </row>
     <row r="18">
@@ -1132,31 +1130,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.143565241578545</v>
+        <v>0.2740948189508575</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9399030466351743</v>
+        <v>0.9743249226738446</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.525237267345301</v>
+        <v>1.565659851684669</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.544538896196751</v>
+        <v>1.676175385210281</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.00346828370165</v>
+        <v>0.850049055875164</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.21226221051752</v>
+        <v>5.128231681911161</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7824157034179435</v>
+        <v>0.7676280558476785</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.7207923362780317</v>
+        <v>0.6784371598411548</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.03717769677979</v>
+        <v>3.05403103213628</v>
       </c>
     </row>
     <row r="19">
@@ -1182,7 +1180,7 @@
         <v>-0.2085599770332165</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1.101764378441551</v>
+        <v>1.101764378441552</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1016871494213924</v>
@@ -1191,7 +1189,7 @@
         <v>-0.1034881908064914</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.179313948478886</v>
+        <v>1.179313948478887</v>
       </c>
     </row>
     <row r="20">
@@ -1204,25 +1202,25 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.7590038767070431</v>
+        <v>-0.7595957260130585</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5116396527091881</v>
+        <v>-0.4984247206226964</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6301962921919373</v>
+        <v>-0.6432983009183003</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2203361575865714</v>
+        <v>0.3297847235982375</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.5071716188538329</v>
+        <v>-0.5307433178259355</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5076830864842178</v>
+        <v>-0.5343069651041579</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2936495042862076</v>
+        <v>0.3090424809352185</v>
       </c>
     </row>
     <row r="21">
@@ -1236,22 +1234,22 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>0.81040791677901</v>
+        <v>0.8808198001040531</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.5408365022465399</v>
+        <v>0.4820768038966682</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.857579128084739</v>
+        <v>2.883737553469103</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7424671306481471</v>
+        <v>0.7609464477217054</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7193483773443227</v>
+        <v>0.6472165637314125</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.736284656149348</v>
+        <v>2.736104405772824</v>
       </c>
     </row>
     <row r="22">
@@ -1272,7 +1270,7 @@
         <v>-0.4524877092751201</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3244370852846045</v>
+        <v>0.3244370852846049</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.9233930203691714</v>
@@ -1281,7 +1279,7 @@
         <v>1.247470756866817</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.920606768957671</v>
+        <v>2.92060676895767</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.5291470062187773</v>
@@ -1301,31 +1299,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5252751268567282</v>
+        <v>-0.5352062852553402</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.991041098212159</v>
+        <v>-1.01183915679799</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.3119738535972604</v>
+        <v>-0.3100643708972172</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.2589523996965415</v>
+        <v>-0.3150798859826891</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.003118948521511815</v>
+        <v>0.03587729312284078</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.640792752700396</v>
+        <v>1.548646444131264</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.1169098988266699</v>
+        <v>-0.216107010491852</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.2350212470278891</v>
+        <v>-0.238415672195614</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9863326052443121</v>
+        <v>1.025031782279635</v>
       </c>
     </row>
     <row r="24">
@@ -1336,31 +1334,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8315062838716623</v>
+        <v>0.8094295421070805</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.0005367816382222187</v>
+        <v>-0.07368182581935016</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9969932946326941</v>
+        <v>0.9983930956446248</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.230541981651678</v>
+        <v>2.037175978846799</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.621847514555809</v>
+        <v>2.693108008018211</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.230646973922868</v>
+        <v>4.227598800595258</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.224685123682124</v>
+        <v>1.271327625130823</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.241877674424542</v>
+        <v>1.239272280970077</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.483559886710498</v>
+        <v>2.492128115345213</v>
       </c>
     </row>
     <row r="25">
@@ -1377,7 +1375,7 @@
         <v>-0.8247456852182444</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.5913488493243675</v>
+        <v>0.5913488493243682</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.6268928956491079</v>
@@ -1386,7 +1384,7 @@
         <v>0.8469097532242214</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>1.982804281661415</v>
+        <v>1.982804281661414</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.5120977766233086</v>
@@ -1405,32 +1403,30 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="n">
-        <v>-0.7135825034024433</v>
-      </c>
+      <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4362749446974955</v>
+        <v>-0.4379652109184417</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1660896256951712</v>
+        <v>-0.175426996486037</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05463532262075039</v>
+        <v>-0.03681414075834457</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7158634553025617</v>
+        <v>0.6938915064713508</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1408573275392732</v>
+        <v>-0.1651137721416762</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2266431435614431</v>
+        <v>-0.2025672676027969</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6181013499364995</v>
+        <v>0.7027641708185834</v>
       </c>
     </row>
     <row r="27">
@@ -1440,32 +1436,30 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="n">
-        <v>3.415748420980175</v>
-      </c>
+      <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>2.143228544734852</v>
+        <v>1.046539879960567</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.973579424112958</v>
+        <v>4.195457031438953</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>2.376855948240487</v>
+        <v>2.139765060308992</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.674690393882588</v>
+        <v>2.992894193945576</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.572364922169773</v>
+        <v>5.003428241090089</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.595592060680603</v>
+        <v>1.755605911650456</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.660566058640115</v>
+        <v>1.708056321210387</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.290488739593597</v>
+        <v>3.514005663837036</v>
       </c>
     </row>
     <row r="28">
@@ -1486,7 +1480,7 @@
         <v>0.1511394173982236</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.8289995249279265</v>
+        <v>0.8289995249279262</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.010176432353802</v>
@@ -1495,7 +1489,7 @@
         <v>0.7442218142061908</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.811986732701426</v>
+        <v>2.811986732701425</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.5336680819936768</v>
@@ -1515,31 +1509,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2680191635219031</v>
+        <v>-0.2766302673214799</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.1861786773760587</v>
+        <v>-0.1786711764079237</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.4229999264653684</v>
+        <v>0.421680321871848</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3383415124082605</v>
+        <v>0.2705486411650542</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.06868558402273275</v>
+        <v>0.09815625736746265</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.08274672586813</v>
+        <v>2.093435078988792</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1435809166269313</v>
+        <v>0.1310096933570468</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1230724511456161</v>
+        <v>0.03245629229422509</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.429839731734333</v>
+        <v>1.448935537171445</v>
       </c>
     </row>
     <row r="30">
@@ -1550,31 +1544,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3623965671021127</v>
+        <v>0.3569060975038912</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5175779510002919</v>
+        <v>0.5050692236123492</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.268671410787643</v>
+        <v>1.242051714840257</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.744088677849256</v>
+        <v>1.744057325515486</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.51660414712332</v>
+        <v>1.459245377010608</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.516851933432247</v>
+        <v>3.52941475247605</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.9715440216505077</v>
+        <v>0.9081853130350722</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.85396690004035</v>
+        <v>0.8330786813375806</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.315183235171971</v>
+        <v>2.31441371049262</v>
       </c>
     </row>
     <row r="31">
@@ -1591,7 +1585,7 @@
         <v>0.3673427432412127</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2.014874510401983</v>
+        <v>2.014874510401982</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.5918869500978229</v>
@@ -1620,31 +1614,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5005233107888969</v>
+        <v>-0.5147661041998639</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3575830052326005</v>
+        <v>-0.3382888524860447</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.6459488559028271</v>
+        <v>0.6039137735417934</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.142094202022002</v>
+        <v>0.1272291127316845</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.01969557145428062</v>
+        <v>0.04700789968255466</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.012343045420801</v>
+        <v>0.9593412715027771</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1147210919343567</v>
+        <v>0.09835632035194544</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.07407820693036075</v>
+        <v>0.0383878981856306</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.083846972594511</v>
+        <v>1.109774677821246</v>
       </c>
     </row>
     <row r="33">
@@ -1655,31 +1649,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.652323792022388</v>
+        <v>1.4825477351349</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.084357785485662</v>
+        <v>1.987790669463217</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>5.268209251960021</v>
+        <v>4.747850919504979</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.191379635293689</v>
+        <v>1.309316349948831</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.102684135851943</v>
+        <v>1.09836479232985</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.683099478561197</v>
+        <v>2.546221180307732</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.084171869410738</v>
+        <v>1.028199237917777</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9469508958901515</v>
+        <v>0.955898224831401</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.67176620809742</v>
+        <v>2.644630102505694</v>
       </c>
     </row>
     <row r="34">
